--- a/biology/Botanique/Turneraceae/Turneraceae.xlsx
+++ b/biology/Botanique/Turneraceae/Turneraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Turneraceae sont une famille de plantes à fleurs dicotylédones. Selon Watson &amp; Dallwitz, elle compte environ 120 espèces réparties en 10 genres.
 Ce sont des arbustes ou des plantes herbacées à feuilles alternes simples, des régions subtropicales à tropicales originaires de Madagascar, des Mascareignes, d'Amérique du Sud et des Antilles.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Turnera créé par Carl von Linné en l'honneur du botaniste anglais William Turner (1508-1568).
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[1] situe cette famille dans les Malpighiales. En classification phylogénétique APG II (2003)[2] cette famille est optionnelle : ces plantes peuvent être incluses dans les Passifloraceae. 
-En classification phylogénétique APG III (2009)[3], cette famille est invalide et ses genres sont incorporés dans la famille Passifloraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) situe cette famille dans les Malpighiales. En classification phylogénétique APG II (2003) cette famille est optionnelle : ces plantes peuvent être incluses dans les Passifloraceae. 
+En classification phylogénétique APG III (2009), cette famille est invalide et ses genres sont incorporés dans la famille Passifloraceae.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adenoa (en), Arbo, 1977
 Erblichia (en), Seem., 1853
